--- a/ExceLite.Unit.Tests/ExcelFiles/OneLineData.xlsx
+++ b/ExceLite.Unit.Tests/ExcelFiles/OneLineData.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gerezd\Projektek\ExceLite\ExceLite.Unit.Tests\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47B629B9-E155-481D-A5FE-D8E8CFD8DAC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00E9C97B-1375-4EB7-9E9D-024AB829BFA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Munka1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>EmptyTest</t>
   </si>
@@ -58,6 +58,12 @@
   </si>
   <si>
     <t>3385667.12345678912345</t>
+  </si>
+  <si>
+    <t>Duis aute irure dolor in reprehenderit in voluptate velit.</t>
+  </si>
+  <si>
+    <t>Custom string property name</t>
   </si>
 </sst>
 </file>
@@ -386,10 +392,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -400,9 +406,10 @@
     <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="51.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -424,8 +431,11 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>7</v>
       </c>
@@ -443,6 +453,9 @@
       </c>
       <c r="G2" t="s">
         <v>10</v>
+      </c>
+      <c r="H2" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
